--- a/tut05/output/0401CS04.xlsx
+++ b/tut05/output/0401CS04.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.612244897959184</v>
+        <v>7.61</v>
       </c>
       <c r="C6" t="n">
-        <v>7.204545454545454</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>8.348837209302326</v>
+        <v>8.35</v>
       </c>
       <c r="E6" t="n">
-        <v>7.361702127659575</v>
+        <v>7.36</v>
       </c>
       <c r="F6" t="n">
-        <v>7.857142857142857</v>
+        <v>7.86</v>
       </c>
       <c r="G6" t="n">
-        <v>7.625</v>
+        <v>7.62</v>
       </c>
       <c r="H6" t="n">
-        <v>7.975609756097561</v>
+        <v>7.98</v>
       </c>
       <c r="I6" t="n">
         <v>8.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.612244897959184</v>
+        <v>7.61</v>
       </c>
       <c r="C8" t="n">
-        <v>7.419354838709677</v>
+        <v>7.42</v>
       </c>
       <c r="D8" t="n">
-        <v>7.713235294117647</v>
+        <v>7.71</v>
       </c>
       <c r="E8" t="n">
-        <v>7.622950819672131</v>
+        <v>7.62</v>
       </c>
       <c r="F8" t="n">
-        <v>7.666666666666667</v>
+        <v>7.67</v>
       </c>
       <c r="G8" t="n">
-        <v>7.660377358490566</v>
+        <v>7.66</v>
       </c>
       <c r="H8" t="n">
-        <v>7.702614379084967</v>
+        <v>7.7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.777456647398844</v>
+        <v>7.78</v>
       </c>
     </row>
   </sheetData>
